--- a/src/documents/Horario.xlsx
+++ b/src/documents/Horario.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Matemáticas</t>
+          <t>Baguear un rato</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/src/documents/Horario.xlsx
+++ b/src/documents/Horario.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Marihuana</t>
+          <t>Fumar Marihuana</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Algo</t>
+          <t>Levantarme</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Horas</t>
+          <t>No pues GG</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12:10 - 1:30</t>
+          <t>12:10 - 13:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Almuerzo</t>
+          <t>No quiero almorzar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2:00 - 3:30</t>
+          <t>14:00 - 15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4:00 - 5:00</t>
+          <t>16:00 - 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5:00 - 6:00</t>
+          <t>17:00 - 18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6:00 - 7:00</t>
+          <t>18:10 - 19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -802,7 +802,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7:10: 7:30</t>
+          <t>19:10: 19:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8:00 - 8:40</t>
+          <t>20:00 - 20:40</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -886,7 +886,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9:00 - 10:00</t>
+          <t>21:00 - 22:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
